--- a/Assets/format/berkala.xlsx
+++ b/Assets/format/berkala.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Kepegawaian\Assets\format\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\pegawaiRS\kepegawaian\Assets\format\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF3FBAB9-47F3-4D8D-B033-E3210225CA30}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECCB7FDB-4A7B-4245-B2A5-0807E0E6C6D2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1530" yWindow="3045" windowWidth="15375" windowHeight="7875" xr2:uid="{703549F7-F45A-4F9D-98FA-BAC6B84C8DC6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{703549F7-F45A-4F9D-98FA-BAC6B84C8DC6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,7 +23,6 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -31,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>nik</t>
   </si>
@@ -52,15 +51,15 @@
   </si>
   <si>
     <t>berkala</t>
+  </si>
+  <si>
+    <t>tahun bulan tanggal</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
-  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -92,7 +91,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -410,7 +409,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:D1048576"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -444,7 +443,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C2" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>4</v>

--- a/Assets/format/berkala.xlsx
+++ b/Assets/format/berkala.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\pegawaiRS\kepegawaian\Assets\format\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECCB7FDB-4A7B-4245-B2A5-0807E0E6C6D2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D48DA631-52BD-40BC-97A3-C61659AA0B90}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{703549F7-F45A-4F9D-98FA-BAC6B84C8DC6}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
   <si>
     <t>nik</t>
   </si>
@@ -44,23 +44,20 @@
     <t>tanggal akhir</t>
   </si>
   <si>
-    <t>tahun-bulan-tanggal</t>
-  </si>
-  <si>
     <t>nomor SK</t>
   </si>
   <si>
     <t>berkala</t>
   </si>
   <si>
-    <t>tahun bulan tanggal</t>
+    <t>Tahun Bulan Tanggal (2019 01 01)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -68,16 +65,30 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -85,13 +96,30 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -409,7 +437,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -422,31 +450,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="B1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F1" t="s">
-        <v>5</v>
+      <c r="F1" s="2" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C2" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
